--- a/biology/Histoire de la zoologie et de la botanique/Jean_Pernet,_père/Jean_Pernet,_père.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean_Pernet,_père/Jean_Pernet,_père.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean_Pernet,_p%C3%A8re</t>
+          <t>Jean_Pernet,_père</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Claude Pernet père (15 octobre 1832 à Passin - 31 mars 1896 à Lyon) est un rosiériste et créateur de roses français du XIXe siècle.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean_Pernet,_p%C3%A8re</t>
+          <t>Jean_Pernet,_père</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,17 +523,19 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est né dans une famille de pépiniéristes de  Villeurbanne, près de Lyon dans le Rhône. Son père, Claude Pernet, avait créé la pépinière de roses en 1845. Jean Pernet travaille de 1853 à 1855 chez Guillot père à Lyon[1], puis chez Portemer et Victor Verdier à Paris. Il retourne en 1856 à Lyon travailler chez Guillot fils. Il s'établit à son compte en 1857. Sa première obtention est soulevée en 1859, sous le nom de 'Mademoiselle Bonnaire', rosier à fleurs blanches[1]. À sa mort, son établissement est repris par son fils Joseph Pernet-Ducher, fusionnant avec le sien.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est né dans une famille de pépiniéristes de  Villeurbanne, près de Lyon dans le Rhône. Son père, Claude Pernet, avait créé la pépinière de roses en 1845. Jean Pernet travaille de 1853 à 1855 chez Guillot père à Lyon, puis chez Portemer et Victor Verdier à Paris. Il retourne en 1856 à Lyon travailler chez Guillot fils. Il s'établit à son compte en 1857. Sa première obtention est soulevée en 1859, sous le nom de 'Mademoiselle Bonnaire', rosier à fleurs blanches. À sa mort, son établissement est repris par son fils Joseph Pernet-Ducher, fusionnant avec le sien.
 Jean Pernet est connu comme « Pernet père »  et fut un des premiers créateurs de rosiers hybrides :
-'Prince Napoléon' - (rosier Bourbon), 1864[2]
+'Prince Napoléon' - (rosier Bourbon), 1864
 'Baronne Adolphe de Rothschild' - (hybride de thé), 1868,
 'Caroline Küster' - (rosier de Noisette) 1872,
 'Mme Souveton' - (Portland) 1874,
 'Louis Gimard' - (mousseux) 1877,
 'Cécile Brünner' -  (polyantha) 1881,
-'Merveille de Lyon' - (hybride perpétuel) 1882[3],
+'Merveille de Lyon' - (hybride perpétuel) 1882,
 'Baronne Nathaniel de Rothschild' - (hybride perpétuel) 1885,
 'Souvenir de Victor Hugo' - (hybride perpétuel) 1885,
 'Triomphe des Noisettes' - (Noisette) 1887,
